--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -777,7 +777,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -785,34 +785,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F317"/>
+  <dimension ref="A1:G317"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="52.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="94.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="68.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="68.64453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.48828125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5852,7 +5853,7 @@
         <v>82</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253">
@@ -5872,7 +5873,7 @@
         <v>85</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254">
@@ -5912,7 +5913,7 @@
         <v>89</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256">
@@ -6312,7 +6313,7 @@
         <v>173</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276">
@@ -7158,273 +7159,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB414E9F-281C-4795-9933-888428E7E980}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19C45114-9DFF-4CF8-ACFA-8BFC13BA6F59}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A82F391-FE38-45FB-B660-BD87F5F8417B}"/>
 </file>
--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="246">
   <si>
     <t>Sezione</t>
   </si>
@@ -89,6 +89,9 @@
     <t>62</t>
   </si>
   <si>
+    <t>62-bis</t>
+  </si>
+  <si>
     <t>184</t>
   </si>
   <si>
@@ -594,6 +597,9 @@
   </si>
   <si>
     <t>legge</t>
+  </si>
+  <si>
+    <t>62-bis,184</t>
   </si>
   <si>
     <t>Regime patrimoniale - Atto Notarile</t>
@@ -802,7 +808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G317"/>
+  <dimension ref="A1:G318"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1457,60 +1463,60 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1518,19 +1524,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1538,19 +1544,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1558,19 +1564,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1578,19 +1584,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1598,19 +1604,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1618,19 +1624,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1638,19 +1644,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1658,39 +1664,39 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1698,19 +1704,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
@@ -1718,19 +1724,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -1738,39 +1744,39 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1778,19 +1784,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1798,59 +1804,59 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1858,19 +1864,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1878,19 +1884,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1898,19 +1904,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1918,19 +1924,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1938,99 +1944,99 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -2038,19 +2044,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2058,19 +2064,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -2078,19 +2084,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2098,79 +2104,79 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>16</v>
@@ -2178,39 +2184,39 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2218,19 +2224,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2238,19 +2244,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2258,79 +2264,79 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2338,19 +2344,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2358,19 +2364,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2378,19 +2384,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2398,19 +2404,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2418,99 +2424,99 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2518,19 +2524,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2538,19 +2544,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2558,19 +2564,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2578,79 +2584,79 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>16</v>
@@ -2658,39 +2664,39 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2698,19 +2704,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2718,19 +2724,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2738,39 +2744,39 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>16</v>
@@ -2778,19 +2784,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>16</v>
@@ -2798,19 +2804,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>16</v>
@@ -2818,19 +2824,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>16</v>
@@ -2838,299 +2844,299 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>16</v>
@@ -3138,19 +3144,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>16</v>
@@ -3158,19 +3164,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>16</v>
@@ -3178,19 +3184,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>16</v>
@@ -3198,19 +3204,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>16</v>
@@ -3218,19 +3224,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>16</v>
@@ -3238,19 +3244,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>16</v>
@@ -3258,19 +3264,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>16</v>
@@ -3278,299 +3284,299 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F131" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F137" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>16</v>
@@ -3578,19 +3584,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>16</v>
@@ -3598,19 +3604,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>16</v>
@@ -3618,19 +3624,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>16</v>
@@ -3638,19 +3644,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>16</v>
@@ -3658,19 +3664,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>16</v>
@@ -3678,19 +3684,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>16</v>
@@ -3698,19 +3704,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>16</v>
@@ -3718,299 +3724,299 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F147" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F151" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F153" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F154" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F155" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F156" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F157" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F159" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>16</v>
@@ -4018,19 +4024,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>16</v>
@@ -4038,19 +4044,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>16</v>
@@ -4058,19 +4064,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>16</v>
@@ -4078,19 +4084,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>16</v>
@@ -4098,19 +4104,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>16</v>
@@ -4118,19 +4124,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>16</v>
@@ -4138,19 +4144,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>16</v>
@@ -4158,299 +4164,299 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F168" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F169" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F170" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F171" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F172" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F174" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F175" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F176" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F177" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F178" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F179" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F180" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F181" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>16</v>
@@ -4458,19 +4464,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>16</v>
@@ -4478,19 +4484,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>16</v>
@@ -4498,19 +4504,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>16</v>
@@ -4518,39 +4524,39 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E186" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4558,19 +4564,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>9</v>
@@ -4578,19 +4584,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>9</v>
@@ -4598,19 +4604,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>9</v>
@@ -4618,19 +4624,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4638,19 +4644,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4658,7 +4664,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>157</v>
@@ -4667,10 +4673,10 @@
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4678,19 +4684,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4698,7 +4704,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>160</v>
@@ -4707,10 +4713,10 @@
         <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>9</v>
@@ -4718,19 +4724,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4738,19 +4744,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>9</v>
@@ -4758,19 +4764,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4778,19 +4784,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4798,19 +4804,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4818,19 +4824,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4838,19 +4844,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4858,19 +4864,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4878,19 +4884,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4898,7 +4904,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>157</v>
@@ -4907,10 +4913,10 @@
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4918,19 +4924,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -4938,7 +4944,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>160</v>
@@ -4947,10 +4953,10 @@
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -4958,19 +4964,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -4978,19 +4984,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -4998,39 +5004,39 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>20</v>
@@ -5038,19 +5044,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>20</v>
@@ -5058,39 +5064,39 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="F213" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
@@ -5098,19 +5104,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5118,19 +5124,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -5138,39 +5144,39 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="F217" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>20</v>
@@ -5178,19 +5184,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>20</v>
@@ -5198,39 +5204,39 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="F220" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5238,19 +5244,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>9</v>
@@ -5258,19 +5264,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -5281,36 +5287,36 @@
         <v>185</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>21</v>
@@ -5318,19 +5324,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>21</v>
@@ -5338,39 +5344,39 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="F227" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>9</v>
@@ -5378,19 +5384,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>9</v>
@@ -5398,19 +5404,19 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>9</v>
@@ -5418,39 +5424,39 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="E231" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>22</v>
@@ -5458,19 +5464,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>22</v>
@@ -5478,39 +5484,39 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E234" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="F234" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -5518,19 +5524,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E236" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -5538,19 +5544,19 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>9</v>
@@ -5558,39 +5564,39 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E238" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>23</v>
@@ -5598,19 +5604,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>23</v>
@@ -5618,39 +5624,39 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="F241" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -5658,19 +5664,19 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>9</v>
@@ -5678,19 +5684,19 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>9</v>
@@ -5698,47 +5704,47 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="E245" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E246" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="F246" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>197</v>
@@ -5747,18 +5753,18 @@
         <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>198</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>199</v>
@@ -5767,18 +5773,18 @@
         <v>8</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>200</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>201</v>
@@ -5787,30 +5793,30 @@
         <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>202</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="C250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E250" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>9</v>
@@ -5818,7 +5824,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>206</v>
@@ -5827,7 +5833,7 @@
         <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>207</v>
@@ -5838,19 +5844,19 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>9</v>
@@ -5858,59 +5864,59 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E254" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F254" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E255" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>9</v>
@@ -5918,39 +5924,39 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E256" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F256" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E257" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>9</v>
@@ -5958,19 +5964,19 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -5978,19 +5984,19 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E259" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>9</v>
@@ -5998,19 +6004,19 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E260" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>9</v>
@@ -6018,19 +6024,19 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E261" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>9</v>
@@ -6038,19 +6044,19 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E262" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>9</v>
@@ -6058,19 +6064,19 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E263" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>9</v>
@@ -6078,19 +6084,19 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E264" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>9</v>
@@ -6098,19 +6104,19 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E265" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>9</v>
@@ -6118,19 +6124,19 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E266" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>9</v>
@@ -6138,19 +6144,19 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E267" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>9</v>
@@ -6158,19 +6164,19 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E268" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>9</v>
@@ -6178,19 +6184,19 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>9</v>
@@ -6198,19 +6204,19 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E270" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>9</v>
@@ -6218,19 +6224,19 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E271" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>9</v>
@@ -6238,19 +6244,19 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E272" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>9</v>
@@ -6258,19 +6264,19 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B273" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>9</v>
@@ -6278,19 +6284,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6298,19 +6304,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B275" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>9</v>
@@ -6318,39 +6324,39 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B276" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E276" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C276" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="F276" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E277" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>9</v>
@@ -6358,19 +6364,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B278" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6378,19 +6384,19 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B279" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E279" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>9</v>
@@ -6398,19 +6404,19 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B280" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E280" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>9</v>
@@ -6418,10 +6424,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
@@ -6430,30 +6436,30 @@
         <v>211</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283">
@@ -6461,513 +6467,513 @@
         <v>212</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>213</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B285" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E285" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C285" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F285" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E286" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C286" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F286" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E287" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F287" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B288" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E288" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F288" s="2" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E289" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F289" s="2" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B290" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E290" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C290" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F290" s="2" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B291" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E291" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C291" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F291" s="2" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E292" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C292" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F292" s="2" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E293" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F293" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B294" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E294" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F294" s="2" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B295" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E295" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C295" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F295" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E296" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C296" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F296" s="2" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B297" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E297" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C297" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F297" s="2" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B298" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E298" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C298" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F298" s="2" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B299" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E299" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F299" s="2" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B300" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E300" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F300" s="2" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B301" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E301" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C301" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F301" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B302" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E302" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C302" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F302" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B303" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C303" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F303" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B304" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E304" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C304" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F304" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B305" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F305" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F305" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>221</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B307" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E307" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C307" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E307" s="2" t="s">
+      <c r="F307" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>225</v>
@@ -6978,16 +6984,16 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>227</v>
@@ -6998,7 +7004,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>228</v>
@@ -7007,7 +7013,7 @@
         <v>17</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>229</v>
@@ -7018,7 +7024,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>230</v>
@@ -7027,7 +7033,7 @@
         <v>17</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>231</v>
@@ -7038,7 +7044,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>232</v>
@@ -7047,7 +7053,7 @@
         <v>17</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>233</v>
@@ -7058,7 +7064,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>234</v>
@@ -7067,7 +7073,7 @@
         <v>17</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>235</v>
@@ -7078,7 +7084,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>236</v>
@@ -7087,7 +7093,7 @@
         <v>17</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>237</v>
@@ -7098,7 +7104,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>238</v>
@@ -7107,7 +7113,7 @@
         <v>17</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>239</v>
@@ -7118,7 +7124,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>240</v>
@@ -7127,7 +7133,7 @@
         <v>17</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>241</v>
@@ -7138,7 +7144,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>242</v>
@@ -7147,12 +7153,32 @@
         <v>17</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>243</v>
       </c>
       <c r="F317" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F318" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="252">
   <si>
     <t>Sezione</t>
   </si>
@@ -254,12 +254,27 @@
     <t>minutoEvento</t>
   </si>
   <si>
+    <t>Officiante</t>
+  </si>
+  <si>
+    <t>officiante</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>cognomeOfficiante</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nomeOfficiante</t>
+  </si>
+  <si>
     <t>Generalità Sposo</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
@@ -269,9 +284,6 @@
     <t>66,67,68,119,71,63,64,65</t>
   </si>
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
     <t>nome</t>
   </si>
   <si>
@@ -654,6 +666,12 @@
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.segretarioComunale</t>
+  </si>
+  <si>
+    <t>Ruolo</t>
+  </si>
+  <si>
+    <t>ruoloSegretario</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -808,7 +826,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G318"/>
+  <dimension ref="A1:G322"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1827,19 +1845,19 @@
         <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -1847,19 +1865,19 @@
         <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -1867,16 +1885,16 @@
         <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1884,39 +1902,39 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1924,19 +1942,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1944,19 +1962,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1964,39 +1982,39 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -2004,59 +2022,59 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2064,39 +2082,39 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2104,19 +2122,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2124,39 +2142,39 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2164,39 +2182,39 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>16</v>
@@ -2204,19 +2222,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2224,59 +2242,59 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2284,59 +2302,59 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2344,59 +2362,59 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2404,19 +2422,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2424,19 +2442,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2444,39 +2462,39 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2484,59 +2502,59 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2544,39 +2562,39 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2584,19 +2602,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2604,39 +2622,39 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2644,39 +2662,39 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>16</v>
@@ -2684,19 +2702,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2704,59 +2722,59 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2764,22 +2782,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
@@ -2787,19 +2805,19 @@
         <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
@@ -2807,19 +2825,19 @@
         <v>135</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -2827,16 +2845,16 @@
         <v>135</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>16</v>
@@ -2844,19 +2862,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>16</v>
@@ -2864,39 +2882,39 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>16</v>
@@ -2904,259 +2922,259 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>16</v>
@@ -3164,39 +3182,39 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>16</v>
@@ -3204,19 +3222,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>16</v>
@@ -3224,19 +3242,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>16</v>
@@ -3244,19 +3262,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>16</v>
@@ -3264,19 +3282,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>16</v>
@@ -3284,19 +3302,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>16</v>
@@ -3304,39 +3322,39 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>16</v>
@@ -3344,259 +3362,259 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>16</v>
@@ -3604,39 +3622,39 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>16</v>
@@ -3644,19 +3662,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>16</v>
@@ -3664,19 +3682,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>16</v>
@@ -3684,19 +3702,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>16</v>
@@ -3704,19 +3722,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>16</v>
@@ -3724,19 +3742,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>16</v>
@@ -3744,39 +3762,39 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>16</v>
@@ -3784,259 +3802,259 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>16</v>
@@ -4044,39 +4062,39 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>16</v>
@@ -4084,19 +4102,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>16</v>
@@ -4104,19 +4122,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>16</v>
@@ -4124,19 +4142,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>16</v>
@@ -4144,19 +4162,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>16</v>
@@ -4164,19 +4182,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>16</v>
@@ -4184,39 +4202,39 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>16</v>
@@ -4224,259 +4242,259 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>16</v>
@@ -4484,39 +4502,39 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>16</v>
@@ -4524,19 +4542,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>16</v>
@@ -4544,79 +4562,79 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>9</v>
@@ -4624,19 +4642,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4644,19 +4662,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4664,19 +4682,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4684,19 +4702,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4704,19 +4722,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>9</v>
@@ -4724,7 +4742,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>161</v>
@@ -4733,10 +4751,10 @@
         <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4744,19 +4762,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>9</v>
@@ -4764,19 +4782,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4784,19 +4802,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4804,19 +4822,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4824,19 +4842,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4844,19 +4862,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4864,19 +4882,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4884,19 +4902,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4904,19 +4922,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4924,19 +4942,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -4944,19 +4962,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -4964,7 +4982,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>161</v>
@@ -4973,10 +4991,10 @@
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -4984,19 +5002,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -5004,19 +5022,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -5024,139 +5042,139 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5164,139 +5182,139 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E220" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>9</v>
@@ -5304,139 +5322,139 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="F226" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="E227" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>9</v>
@@ -5444,139 +5462,139 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E234" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="F234" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>9</v>
@@ -5584,139 +5602,139 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>9</v>
@@ -5724,62 +5742,62 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249">
@@ -5787,136 +5805,136 @@
         <v>196</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>9</v>
@@ -5924,19 +5942,19 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>24</v>
@@ -5944,39 +5962,39 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -5984,39 +6002,39 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>9</v>
@@ -6024,39 +6042,39 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>9</v>
@@ -6064,39 +6082,39 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>9</v>
@@ -6104,39 +6122,39 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>9</v>
@@ -6144,19 +6162,19 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>9</v>
@@ -6164,19 +6182,19 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>9</v>
@@ -6184,19 +6202,19 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>9</v>
@@ -6204,19 +6222,19 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>9</v>
@@ -6224,19 +6242,19 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>9</v>
@@ -6244,19 +6262,19 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>9</v>
@@ -6264,19 +6282,19 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>9</v>
@@ -6284,19 +6302,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6304,19 +6322,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>9</v>
@@ -6324,39 +6342,39 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>9</v>
@@ -6364,19 +6382,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6384,39 +6402,39 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>9</v>
@@ -6424,19 +6442,19 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>9</v>
@@ -6444,39 +6462,39 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>9</v>
@@ -6484,10 +6502,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
@@ -6496,167 +6514,167 @@
         <v>215</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>216</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>217</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>9</v>
+        <v>222</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>9</v>
@@ -6664,39 +6682,39 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -6704,39 +6722,39 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>9</v>
@@ -6744,39 +6762,39 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -6784,39 +6802,39 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>9</v>
@@ -6824,139 +6842,139 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>217</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>217</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B307" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D307" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C307" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E307" s="2" t="s">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>223</v>
@@ -6964,59 +6982,59 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>9</v>
@@ -7024,30 +7042,30 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>17</v>
@@ -7056,7 +7074,7 @@
         <v>74</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>9</v>
@@ -7064,19 +7082,19 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>9</v>
@@ -7084,19 +7102,19 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>9</v>
@@ -7104,10 +7122,10 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>17</v>
@@ -7116,7 +7134,7 @@
         <v>74</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>9</v>
@@ -7124,10 +7142,10 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>17</v>
@@ -7136,7 +7154,7 @@
         <v>74</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>9</v>
@@ -7144,19 +7162,19 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>9</v>
@@ -7164,21 +7182,101 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="E318" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E319" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F318" s="2" t="s">
+      <c r="F319" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F322" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="265">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,6 +59,27 @@
     <t>Decreto del tribunale per autorizzazione nonostante impedimento di divieto temporaneo di nuove nozze</t>
   </si>
   <si>
+    <t>Copia interale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -768,6 +789,24 @@
   </si>
   <si>
     <t>attoNotarile</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -826,7 +865,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G322"/>
+  <dimension ref="A1:G331"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -982,13 +1021,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -1002,10 +1041,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -1022,10 +1061,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1042,10 +1081,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -1062,10 +1101,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -1082,10 +1121,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1102,10 +1141,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -1122,13 +1161,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -1142,7 +1181,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>25</v>
@@ -1162,7 +1201,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>26</v>
@@ -1182,7 +1221,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>27</v>
@@ -1202,7 +1241,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
@@ -1222,7 +1261,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>29</v>
@@ -1242,7 +1281,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
@@ -1262,7 +1301,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -1282,7 +1321,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>32</v>
@@ -1302,7 +1341,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>33</v>
@@ -1322,7 +1361,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>34</v>
@@ -1342,7 +1381,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>35</v>
@@ -1362,7 +1401,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
@@ -1382,7 +1421,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>37</v>
@@ -1402,7 +1441,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>38</v>
@@ -1422,7 +1461,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>39</v>
@@ -1442,7 +1481,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>40</v>
@@ -1462,7 +1501,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>41</v>
@@ -1482,7 +1521,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>42</v>
@@ -1501,40 +1540,40 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>5</v>
+      <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1542,19 +1581,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1562,19 +1601,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1582,19 +1621,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1602,19 +1641,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1622,59 +1661,59 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>9</v>
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1682,39 +1721,39 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1722,79 +1761,79 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1802,19 +1841,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1822,39 +1861,39 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1862,79 +1901,79 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1942,19 +1981,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1962,19 +2001,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1982,19 +2021,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -2002,39 +2041,39 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2042,39 +2081,39 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2082,39 +2121,39 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2122,19 +2161,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2142,19 +2181,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2162,19 +2201,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2182,119 +2221,119 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2302,19 +2341,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2322,19 +2361,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2342,99 +2381,99 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2442,19 +2481,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2462,19 +2501,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2482,19 +2521,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2502,59 +2541,59 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2562,39 +2601,39 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2602,19 +2641,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2622,19 +2661,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2642,19 +2681,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2662,119 +2701,119 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2782,19 +2821,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2802,19 +2841,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2822,139 +2861,139 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -2962,1699 +3001,1699 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4662,119 +4701,119 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E192" s="2" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>9</v>
@@ -4782,19 +4821,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4802,19 +4841,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4822,19 +4861,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4842,19 +4881,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4862,19 +4901,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4882,19 +4921,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4902,19 +4941,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4922,19 +4961,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4942,19 +4981,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -4962,19 +5001,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -4982,19 +5021,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -5002,19 +5041,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -5022,19 +5061,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -5042,19 +5081,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -5062,19 +5101,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
@@ -5082,19 +5121,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5102,79 +5141,79 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E216" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5182,19 +5221,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
@@ -5202,19 +5241,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -5222,19 +5261,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5242,79 +5281,79 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E224" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>9</v>
@@ -5322,19 +5361,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5342,19 +5381,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>9</v>
@@ -5362,19 +5401,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5382,79 +5421,79 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>9</v>
@@ -5462,19 +5501,19 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>9</v>
@@ -5482,19 +5521,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>9</v>
@@ -5502,19 +5541,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
@@ -5522,79 +5561,79 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>9</v>
@@ -5602,19 +5641,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>9</v>
@@ -5622,19 +5661,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -5642,19 +5681,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
@@ -5662,79 +5701,79 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>9</v>
@@ -5742,19 +5781,19 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>9</v>
@@ -5762,19 +5801,19 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>9</v>
@@ -5782,19 +5821,19 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="C248" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D248" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>9</v>
@@ -5802,99 +5841,99 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>199</v>
+        <v>30</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>9</v>
@@ -5902,19 +5941,19 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -5922,19 +5961,19 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>9</v>
@@ -5942,99 +5981,99 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E257" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F257" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>9</v>
@@ -6042,39 +6081,39 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>9</v>
@@ -6082,99 +6121,99 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>9</v>
@@ -6182,39 +6221,39 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>9</v>
@@ -6222,39 +6261,39 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>9</v>
@@ -6262,39 +6301,39 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>9</v>
@@ -6302,19 +6341,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6322,19 +6361,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>9</v>
@@ -6342,19 +6381,19 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>9</v>
@@ -6362,19 +6401,19 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>9</v>
@@ -6382,19 +6421,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6402,39 +6441,39 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>9</v>
@@ -6442,19 +6481,19 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>9</v>
@@ -6462,19 +6501,19 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>9</v>
@@ -6482,19 +6521,19 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>9</v>
@@ -6502,19 +6541,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>9</v>
@@ -6525,19 +6564,19 @@
         <v>216</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286">
@@ -6545,19 +6584,19 @@
         <v>216</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="287">
@@ -6565,16 +6604,16 @@
         <v>216</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6582,139 +6621,139 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E292" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C292" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F292" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E293" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F293" s="2" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -6722,459 +6761,459 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>226</v>
+        <v>125</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>229</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>234</v>
+        <v>132</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>239</v>
+        <v>137</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>9</v>
@@ -7182,39 +7221,39 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>9</v>
@@ -7222,19 +7261,19 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>9</v>
@@ -7242,19 +7281,19 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>9</v>
@@ -7262,21 +7301,201 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B322" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E325" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C322" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E322" s="2" t="s">
+      <c r="F325" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F322" s="2" t="s">
+      <c r="C326" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F331" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -59,7 +59,7 @@
     <t>Decreto del tribunale per autorizzazione nonostante impedimento di divieto temporaneo di nuove nozze</t>
   </si>
   <si>
-    <t>Copia interale atto di nascita degli sposi</t>
+    <t>Copia integrale atto di nascita degli sposi</t>
   </si>
   <si>
     <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="268">
   <si>
     <t>Sezione</t>
   </si>
@@ -278,6 +278,9 @@
     <t>Officiante</t>
   </si>
   <si>
+    <t>Ufficiale di stato civile delegato a celebrare il matrimonio</t>
+  </si>
+  <si>
     <t>officiante</t>
   </si>
   <si>
@@ -548,6 +551,54 @@
     <t>serie</t>
   </si>
   <si>
+    <t>Autorizzazione - omissioni pubblicazioni</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.sentenzaOmissionePubblicazione</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
     <t>Atto di Nascita della sposa</t>
   </si>
   <si>
@@ -557,49 +608,7 @@
     <t>Opposizione - Sentenza di rigetto</t>
   </si>
   <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
     <t>evento.datiEventoMatrimonio.provvedimentoRigettoOpposizione</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
   </si>
   <si>
     <t>Opposizione - Estinzione giudizio</t>
@@ -865,7 +874,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G331"/>
+  <dimension ref="A1:G338"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2024,7 +2033,7 @@
         <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>24</v>
@@ -2033,7 +2042,7 @@
         <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -2044,7 +2053,7 @@
         <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
@@ -2053,7 +2062,7 @@
         <v>81</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>23</v>
@@ -2064,7 +2073,7 @@
         <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>24</v>
@@ -2073,7 +2082,7 @@
         <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2081,39 +2090,39 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2121,19 +2130,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -2141,19 +2150,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2161,19 +2170,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2181,19 +2190,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2201,19 +2210,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2221,19 +2230,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>23</v>
@@ -2241,19 +2250,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2261,19 +2270,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>23</v>
@@ -2281,19 +2290,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2301,19 +2310,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2321,19 +2330,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2341,19 +2350,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2361,19 +2370,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2381,19 +2390,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>23</v>
@@ -2401,19 +2410,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2421,19 +2430,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>23</v>
@@ -2441,19 +2450,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>23</v>
@@ -2461,19 +2470,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2481,19 +2490,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2501,19 +2510,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2521,10 +2530,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>24</v>
@@ -2533,7 +2542,7 @@
         <v>81</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2541,10 +2550,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>8</v>
@@ -2553,7 +2562,7 @@
         <v>81</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>23</v>
@@ -2561,39 +2570,39 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2601,19 +2610,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2621,19 +2630,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2641,19 +2650,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2661,19 +2670,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2681,19 +2690,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2701,19 +2710,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>23</v>
@@ -2721,19 +2730,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2741,19 +2750,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>23</v>
@@ -2761,19 +2770,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2781,19 +2790,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2801,19 +2810,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2821,19 +2830,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2841,19 +2850,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2861,19 +2870,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>23</v>
@@ -2881,19 +2890,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2901,19 +2910,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>23</v>
@@ -2921,19 +2930,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>23</v>
@@ -2941,19 +2950,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2961,19 +2970,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -2981,19 +2990,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -3001,10 +3010,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>24</v>
@@ -3013,7 +3022,7 @@
         <v>81</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>9</v>
@@ -3021,10 +3030,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
@@ -3033,7 +3042,7 @@
         <v>81</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>23</v>
@@ -3041,19 +3050,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>23</v>
@@ -3061,19 +3070,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>23</v>
@@ -3081,19 +3090,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>23</v>
@@ -3101,19 +3110,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>23</v>
@@ -3121,19 +3130,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>9</v>
@@ -3141,19 +3150,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>23</v>
@@ -3161,19 +3170,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -3181,19 +3190,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>23</v>
@@ -3201,19 +3210,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -3221,19 +3230,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>23</v>
@@ -3241,19 +3250,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -3261,19 +3270,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>23</v>
@@ -3281,19 +3290,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>9</v>
@@ -3301,19 +3310,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>23</v>
@@ -3321,19 +3330,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>9</v>
@@ -3341,19 +3350,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>23</v>
@@ -3361,19 +3370,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -3381,19 +3390,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>23</v>
@@ -3401,19 +3410,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>23</v>
@@ -3421,19 +3430,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>23</v>
@@ -3441,19 +3450,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>23</v>
@@ -3461,19 +3470,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>23</v>
@@ -3481,19 +3490,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>23</v>
@@ -3501,19 +3510,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>23</v>
@@ -3521,19 +3530,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>23</v>
@@ -3541,19 +3550,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>23</v>
@@ -3561,19 +3570,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>9</v>
@@ -3581,19 +3590,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>23</v>
@@ -3601,19 +3610,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>9</v>
@@ -3621,19 +3630,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>23</v>
@@ -3641,19 +3650,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>9</v>
@@ -3661,19 +3670,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>23</v>
@@ -3681,19 +3690,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>9</v>
@@ -3701,19 +3710,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>23</v>
@@ -3721,19 +3730,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>9</v>
@@ -3741,19 +3750,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>23</v>
@@ -3761,19 +3770,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>9</v>
@@ -3781,19 +3790,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>23</v>
@@ -3801,19 +3810,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>9</v>
@@ -3821,19 +3830,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>23</v>
@@ -3841,19 +3850,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>23</v>
@@ -3861,19 +3870,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>23</v>
@@ -3881,19 +3890,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>23</v>
@@ -3901,19 +3910,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>23</v>
@@ -3921,19 +3930,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>23</v>
@@ -3941,19 +3950,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>23</v>
@@ -3961,19 +3970,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>23</v>
@@ -3981,19 +3990,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>23</v>
@@ -4001,19 +4010,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -4021,19 +4030,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>23</v>
@@ -4041,19 +4050,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>9</v>
@@ -4061,19 +4070,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>23</v>
@@ -4081,19 +4090,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>9</v>
@@ -4101,19 +4110,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>23</v>
@@ -4121,19 +4130,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>9</v>
@@ -4141,19 +4150,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>23</v>
@@ -4161,19 +4170,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>9</v>
@@ -4181,19 +4190,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>23</v>
@@ -4201,19 +4210,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>9</v>
@@ -4221,19 +4230,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>23</v>
@@ -4241,19 +4250,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>9</v>
@@ -4261,19 +4270,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>23</v>
@@ -4281,19 +4290,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>23</v>
@@ -4301,19 +4310,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>23</v>
@@ -4321,19 +4330,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>23</v>
@@ -4341,19 +4350,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>23</v>
@@ -4361,19 +4370,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>23</v>
@@ -4381,19 +4390,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>23</v>
@@ -4401,19 +4410,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>23</v>
@@ -4421,19 +4430,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>23</v>
@@ -4441,19 +4450,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4461,19 +4470,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>23</v>
@@ -4481,19 +4490,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>9</v>
@@ -4501,19 +4510,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>23</v>
@@ -4521,19 +4530,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>9</v>
@@ -4541,19 +4550,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>23</v>
@@ -4561,19 +4570,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4581,19 +4590,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>23</v>
@@ -4601,19 +4610,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4621,19 +4630,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>23</v>
@@ -4641,19 +4650,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>9</v>
@@ -4661,19 +4670,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>23</v>
@@ -4681,19 +4690,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4701,19 +4710,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>23</v>
@@ -4721,19 +4730,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>23</v>
@@ -4741,19 +4750,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>23</v>
@@ -4761,19 +4770,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>23</v>
@@ -4781,19 +4790,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>23</v>
@@ -4801,19 +4810,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>9</v>
@@ -4821,19 +4830,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4841,19 +4850,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4861,19 +4870,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4881,19 +4890,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4901,19 +4910,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4921,16 +4930,16 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>53</v>
@@ -4941,19 +4950,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4961,16 +4970,16 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>55</v>
@@ -4981,19 +4990,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -5001,19 +5010,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -5021,19 +5030,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -5041,59 +5050,59 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -5101,19 +5110,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
@@ -5121,39 +5130,39 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
@@ -5161,39 +5170,39 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -5201,19 +5210,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5221,19 +5230,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
@@ -5241,19 +5250,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -5261,19 +5270,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5281,79 +5290,79 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>9</v>
@@ -5361,19 +5370,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5381,19 +5390,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>9</v>
@@ -5401,19 +5410,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5421,19 +5430,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>27</v>
@@ -5441,19 +5450,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>27</v>
@@ -5461,19 +5470,19 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>27</v>
@@ -5481,19 +5490,19 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>9</v>
@@ -5501,19 +5510,19 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>9</v>
@@ -5521,19 +5530,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>9</v>
@@ -5541,19 +5550,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E234" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
@@ -5561,10 +5570,10 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>8</v>
@@ -5573,18 +5582,18 @@
         <v>198</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
@@ -5593,18 +5602,18 @@
         <v>198</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>8</v>
@@ -5613,18 +5622,18 @@
         <v>198</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>8</v>
@@ -5633,7 +5642,7 @@
         <v>198</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>9</v>
@@ -5641,10 +5650,10 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
@@ -5653,7 +5662,7 @@
         <v>198</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>9</v>
@@ -5661,10 +5670,10 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
@@ -5673,7 +5682,7 @@
         <v>198</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -5681,10 +5690,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
@@ -5693,7 +5702,7 @@
         <v>198</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
@@ -5701,79 +5710,79 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F243" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="F244" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>9</v>
@@ -5781,19 +5790,19 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E246" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>9</v>
@@ -5801,19 +5810,19 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E247" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>9</v>
@@ -5821,19 +5830,19 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>9</v>
@@ -5841,79 +5850,79 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E250" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F250" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E251" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="F251" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E252" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>9</v>
@@ -5921,19 +5930,19 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E253" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>9</v>
@@ -5941,19 +5950,19 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E254" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -5961,19 +5970,19 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E255" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>9</v>
@@ -5981,99 +5990,99 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>9</v>
@@ -6081,19 +6090,19 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>9</v>
@@ -6101,19 +6110,19 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>9</v>
@@ -6121,99 +6130,99 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>95</v>
+        <v>208</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E266" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F266" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>9</v>
@@ -6221,39 +6230,39 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E268" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E268" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F268" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>9</v>
@@ -6261,19 +6270,19 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>31</v>
@@ -6281,79 +6290,79 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6361,39 +6370,39 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>9</v>
@@ -6401,39 +6410,39 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6441,39 +6450,39 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>9</v>
@@ -6481,19 +6490,19 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>9</v>
@@ -6501,19 +6510,19 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>9</v>
@@ -6521,19 +6530,19 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>9</v>
@@ -6541,19 +6550,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>9</v>
@@ -6561,19 +6570,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>9</v>
@@ -6581,39 +6590,39 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6621,19 +6630,19 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>9</v>
@@ -6641,19 +6650,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6661,19 +6670,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>9</v>
@@ -6681,19 +6690,19 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6701,59 +6710,59 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B294" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E294" s="2" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -6761,139 +6770,139 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>229</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>229</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>229</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B299" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E299" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D300" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B300" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E300" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>107</v>
+        <v>229</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>9</v>
@@ -6901,450 +6910,450 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>229</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>9</v>
+        <v>233</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>9</v>
+        <v>233</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>229</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B317" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E317" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F317" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="F317" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D318" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B318" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E318" s="2" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B319" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E319" s="2" t="s">
-        <v>238</v>
+        <v>130</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B320" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E320" s="2" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>9</v>
+        <v>233</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B321" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E321" s="2" t="s">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>9</v>
+        <v>233</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D322" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B322" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E322" s="2" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>9</v>
+        <v>233</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D323" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B323" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E323" s="2" t="s">
-        <v>246</v>
+        <v>138</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>9</v>
+        <v>233</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>24</v>
@@ -7353,7 +7362,7 @@
         <v>81</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>9</v>
@@ -7361,30 +7370,30 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>9</v>
+        <v>239</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>24</v>
@@ -7393,7 +7402,7 @@
         <v>81</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>9</v>
@@ -7401,19 +7410,19 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>9</v>
@@ -7421,19 +7430,19 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>9</v>
@@ -7441,19 +7450,19 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>9</v>
@@ -7461,19 +7470,19 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>9</v>
@@ -7481,21 +7490,161 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E335" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="F335" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B337" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C331" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E331" s="2" t="s">
+      <c r="C337" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F331" s="2" t="s">
+      <c r="E337" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F338" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="303">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -731,31 +731,25 @@
     <t>ruoloSegretario</t>
   </si>
   <si>
-    <t>Padre Sposo</t>
+    <t>Generalità padre Sposo - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(2,4,5,99)}</t>
-  </si>
-  <si>
-    <t>Padre Sposa</t>
+    <t>Generalità padre Sposa - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].tipoAssistente,in,(2,4,5,99)}</t>
+    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Madre Sposo</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[1]</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Madre Sposa</t>
@@ -991,7 +985,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.98046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.30859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="86.69140625" customWidth="true" bestFit="true"/>
@@ -7046,7 +7040,7 @@
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="264">
@@ -7069,7 +7063,7 @@
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="265">
@@ -7092,7 +7086,7 @@
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="266">
@@ -7115,7 +7109,7 @@
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="267">
@@ -7138,7 +7132,7 @@
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="268">
@@ -7161,7 +7155,7 @@
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="269">
@@ -7184,7 +7178,7 @@
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="270">
@@ -7207,7 +7201,7 @@
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="271">
@@ -7230,7 +7224,7 @@
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="272">
@@ -7253,7 +7247,7 @@
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="273">
@@ -7276,7 +7270,7 @@
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="274">
@@ -7299,7 +7293,7 @@
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="275">
@@ -7322,7 +7316,7 @@
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="276">
@@ -7345,7 +7339,7 @@
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="277">
@@ -7368,7 +7362,7 @@
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="278">
@@ -7391,7 +7385,7 @@
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="279">
@@ -7414,7 +7408,7 @@
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="280">
@@ -7437,7 +7431,7 @@
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="281">
@@ -7460,7 +7454,7 @@
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="282">
@@ -7483,7 +7477,7 @@
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="283">
@@ -7506,7 +7500,7 @@
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="284">
@@ -7529,12 +7523,12 @@
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>97</v>
@@ -7543,7 +7537,7 @@
         <v>9</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>103</v>
@@ -7552,12 +7546,12 @@
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>99</v>
@@ -7566,7 +7560,7 @@
         <v>31</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>105</v>
@@ -7575,12 +7569,12 @@
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>106</v>
@@ -7589,7 +7583,7 @@
         <v>31</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>107</v>
@@ -7598,12 +7592,12 @@
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>108</v>
@@ -7612,7 +7606,7 @@
         <v>31</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>109</v>
@@ -7621,12 +7615,12 @@
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>110</v>
@@ -7635,7 +7629,7 @@
         <v>31</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>111</v>
@@ -7644,12 +7638,12 @@
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>112</v>
@@ -7658,7 +7652,7 @@
         <v>31</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>113</v>
@@ -7667,12 +7661,12 @@
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>114</v>
@@ -7681,7 +7675,7 @@
         <v>9</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>115</v>
@@ -7690,12 +7684,12 @@
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>116</v>
@@ -7704,7 +7698,7 @@
         <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>117</v>
@@ -7713,12 +7707,12 @@
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>118</v>
@@ -7727,7 +7721,7 @@
         <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>119</v>
@@ -7736,12 +7730,12 @@
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>120</v>
@@ -7750,7 +7744,7 @@
         <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>121</v>
@@ -7759,12 +7753,12 @@
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>122</v>
@@ -7773,7 +7767,7 @@
         <v>31</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>123</v>
@@ -7782,12 +7776,12 @@
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>124</v>
@@ -7796,7 +7790,7 @@
         <v>31</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>125</v>
@@ -7805,12 +7799,12 @@
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>126</v>
@@ -7819,7 +7813,7 @@
         <v>31</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>127</v>
@@ -7828,12 +7822,12 @@
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>128</v>
@@ -7842,7 +7836,7 @@
         <v>31</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>129</v>
@@ -7851,12 +7845,12 @@
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>130</v>
@@ -7865,7 +7859,7 @@
         <v>9</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>131</v>
@@ -7874,12 +7868,12 @@
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>132</v>
@@ -7888,7 +7882,7 @@
         <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>133</v>
@@ -7897,12 +7891,12 @@
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>134</v>
@@ -7911,7 +7905,7 @@
         <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>135</v>
@@ -7920,12 +7914,12 @@
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>136</v>
@@ -7934,7 +7928,7 @@
         <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>137</v>
@@ -7943,12 +7937,12 @@
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>138</v>
@@ -7957,7 +7951,7 @@
         <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>139</v>
@@ -7966,12 +7960,12 @@
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>140</v>
@@ -7980,7 +7974,7 @@
         <v>31</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>141</v>
@@ -7989,12 +7983,12 @@
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>142</v>
@@ -8003,7 +7997,7 @@
         <v>31</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>143</v>
@@ -8012,12 +8006,12 @@
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>144</v>
@@ -8026,7 +8020,7 @@
         <v>31</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>145</v>
@@ -8035,12 +8029,12 @@
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>97</v>
@@ -8049,7 +8043,7 @@
         <v>9</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>103</v>
@@ -8058,12 +8052,12 @@
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>99</v>
@@ -8072,7 +8066,7 @@
         <v>31</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>105</v>
@@ -8081,12 +8075,12 @@
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>106</v>
@@ -8095,7 +8089,7 @@
         <v>31</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>107</v>
@@ -8104,12 +8098,12 @@
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>108</v>
@@ -8118,7 +8112,7 @@
         <v>31</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>109</v>
@@ -8127,12 +8121,12 @@
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>110</v>
@@ -8141,7 +8135,7 @@
         <v>31</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>111</v>
@@ -8150,12 +8144,12 @@
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>112</v>
@@ -8164,7 +8158,7 @@
         <v>31</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>113</v>
@@ -8173,12 +8167,12 @@
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>114</v>
@@ -8187,7 +8181,7 @@
         <v>9</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>115</v>
@@ -8196,12 +8190,12 @@
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>116</v>
@@ -8210,7 +8204,7 @@
         <v>9</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>117</v>
@@ -8219,12 +8213,12 @@
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>118</v>
@@ -8233,7 +8227,7 @@
         <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>119</v>
@@ -8242,12 +8236,12 @@
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>120</v>
@@ -8256,7 +8250,7 @@
         <v>9</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>121</v>
@@ -8265,12 +8259,12 @@
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>122</v>
@@ -8279,7 +8273,7 @@
         <v>31</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>123</v>
@@ -8288,12 +8282,12 @@
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>124</v>
@@ -8302,7 +8296,7 @@
         <v>31</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>125</v>
@@ -8311,12 +8305,12 @@
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>126</v>
@@ -8325,7 +8319,7 @@
         <v>31</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>127</v>
@@ -8334,12 +8328,12 @@
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>128</v>
@@ -8348,7 +8342,7 @@
         <v>31</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>129</v>
@@ -8357,12 +8351,12 @@
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>130</v>
@@ -8371,7 +8365,7 @@
         <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>131</v>
@@ -8380,12 +8374,12 @@
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>132</v>
@@ -8394,7 +8388,7 @@
         <v>9</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>133</v>
@@ -8403,12 +8397,12 @@
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>134</v>
@@ -8417,7 +8411,7 @@
         <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>135</v>
@@ -8426,12 +8420,12 @@
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>136</v>
@@ -8440,7 +8434,7 @@
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>137</v>
@@ -8449,12 +8443,12 @@
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>138</v>
@@ -8463,7 +8457,7 @@
         <v>9</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>139</v>
@@ -8472,12 +8466,12 @@
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>140</v>
@@ -8486,7 +8480,7 @@
         <v>31</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>141</v>
@@ -8495,12 +8489,12 @@
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>142</v>
@@ -8509,7 +8503,7 @@
         <v>31</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>143</v>
@@ -8518,12 +8512,12 @@
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>144</v>
@@ -8532,7 +8526,7 @@
         <v>31</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>145</v>
@@ -8541,12 +8535,12 @@
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>97</v>
@@ -8555,7 +8549,7 @@
         <v>9</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>103</v>
@@ -8564,12 +8558,12 @@
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>99</v>
@@ -8578,7 +8572,7 @@
         <v>31</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>105</v>
@@ -8587,12 +8581,12 @@
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>106</v>
@@ -8601,7 +8595,7 @@
         <v>31</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>107</v>
@@ -8610,12 +8604,12 @@
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>108</v>
@@ -8624,7 +8618,7 @@
         <v>31</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>109</v>
@@ -8633,12 +8627,12 @@
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>110</v>
@@ -8647,7 +8641,7 @@
         <v>31</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>111</v>
@@ -8656,12 +8650,12 @@
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>112</v>
@@ -8670,7 +8664,7 @@
         <v>31</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>113</v>
@@ -8679,12 +8673,12 @@
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>114</v>
@@ -8693,7 +8687,7 @@
         <v>9</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>115</v>
@@ -8702,12 +8696,12 @@
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>116</v>
@@ -8716,7 +8710,7 @@
         <v>9</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>117</v>
@@ -8725,12 +8719,12 @@
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>118</v>
@@ -8739,7 +8733,7 @@
         <v>9</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>119</v>
@@ -8748,12 +8742,12 @@
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>120</v>
@@ -8762,7 +8756,7 @@
         <v>9</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>121</v>
@@ -8771,12 +8765,12 @@
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>122</v>
@@ -8785,7 +8779,7 @@
         <v>31</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>123</v>
@@ -8794,12 +8788,12 @@
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>124</v>
@@ -8808,7 +8802,7 @@
         <v>31</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>125</v>
@@ -8817,12 +8811,12 @@
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>126</v>
@@ -8831,7 +8825,7 @@
         <v>31</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>127</v>
@@ -8840,12 +8834,12 @@
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>128</v>
@@ -8854,7 +8848,7 @@
         <v>31</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>129</v>
@@ -8863,12 +8857,12 @@
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>130</v>
@@ -8877,7 +8871,7 @@
         <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>131</v>
@@ -8886,12 +8880,12 @@
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>132</v>
@@ -8900,7 +8894,7 @@
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>133</v>
@@ -8909,12 +8903,12 @@
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>134</v>
@@ -8923,7 +8917,7 @@
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>135</v>
@@ -8932,12 +8926,12 @@
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>136</v>
@@ -8946,7 +8940,7 @@
         <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>137</v>
@@ -8955,12 +8949,12 @@
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>138</v>
@@ -8969,7 +8963,7 @@
         <v>9</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>139</v>
@@ -8978,12 +8972,12 @@
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>140</v>
@@ -8992,7 +8986,7 @@
         <v>31</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>141</v>
@@ -9001,12 +8995,12 @@
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>142</v>
@@ -9015,7 +9009,7 @@
         <v>31</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>143</v>
@@ -9024,12 +9018,12 @@
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>144</v>
@@ -9038,7 +9032,7 @@
         <v>31</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>145</v>
@@ -9047,12 +9041,12 @@
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>97</v>
@@ -9070,12 +9064,12 @@
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>99</v>
@@ -9093,12 +9087,12 @@
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>106</v>
@@ -9116,12 +9110,12 @@
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>108</v>
@@ -9139,12 +9133,12 @@
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>110</v>
@@ -9162,12 +9156,12 @@
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>112</v>
@@ -9185,12 +9179,12 @@
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>114</v>
@@ -9208,12 +9202,12 @@
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>116</v>
@@ -9231,12 +9225,12 @@
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>118</v>
@@ -9254,12 +9248,12 @@
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>120</v>
@@ -9277,12 +9271,12 @@
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>122</v>
@@ -9300,12 +9294,12 @@
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>124</v>
@@ -9323,12 +9317,12 @@
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>126</v>
@@ -9346,12 +9340,12 @@
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>128</v>
@@ -9369,12 +9363,12 @@
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>130</v>
@@ -9392,12 +9386,12 @@
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>132</v>
@@ -9415,12 +9409,12 @@
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>134</v>
@@ -9438,12 +9432,12 @@
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>136</v>
@@ -9461,12 +9455,12 @@
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>138</v>
@@ -9484,12 +9478,12 @@
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>140</v>
@@ -9507,12 +9501,12 @@
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>142</v>
@@ -9530,12 +9524,12 @@
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>144</v>
@@ -9553,12 +9547,12 @@
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>97</v>
@@ -9576,12 +9570,12 @@
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>99</v>
@@ -9599,12 +9593,12 @@
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>106</v>
@@ -9622,12 +9616,12 @@
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>108</v>
@@ -9645,12 +9639,12 @@
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>110</v>
@@ -9668,12 +9662,12 @@
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>112</v>
@@ -9691,12 +9685,12 @@
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>114</v>
@@ -9714,12 +9708,12 @@
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>116</v>
@@ -9737,12 +9731,12 @@
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>118</v>
@@ -9760,12 +9754,12 @@
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>120</v>
@@ -9783,12 +9777,12 @@
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>122</v>
@@ -9806,12 +9800,12 @@
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>124</v>
@@ -9829,12 +9823,12 @@
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>126</v>
@@ -9852,12 +9846,12 @@
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>128</v>
@@ -9875,12 +9869,12 @@
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>130</v>
@@ -9898,12 +9892,12 @@
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>132</v>
@@ -9921,12 +9915,12 @@
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>134</v>
@@ -9944,12 +9938,12 @@
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>136</v>
@@ -9967,12 +9961,12 @@
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>138</v>
@@ -9990,12 +9984,12 @@
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>140</v>
@@ -10013,12 +10007,12 @@
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>142</v>
@@ -10036,12 +10030,12 @@
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>144</v>
@@ -10059,12 +10053,12 @@
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>193</v>
@@ -10073,7 +10067,7 @@
         <v>9</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>195</v>
@@ -10082,12 +10076,12 @@
         <v>38</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>197</v>
@@ -10096,7 +10090,7 @@
         <v>9</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>198</v>
@@ -10105,12 +10099,12 @@
         <v>38</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>199</v>
@@ -10119,7 +10113,7 @@
         <v>9</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>200</v>
@@ -10128,12 +10122,12 @@
         <v>38</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>201</v>
@@ -10142,7 +10136,7 @@
         <v>9</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E398" s="2" t="s">
         <v>202</v>
@@ -10151,12 +10145,12 @@
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>203</v>
@@ -10165,7 +10159,7 @@
         <v>9</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>204</v>
@@ -10174,12 +10168,12 @@
         <v>38</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>205</v>
@@ -10188,7 +10182,7 @@
         <v>9</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E400" s="2" t="s">
         <v>206</v>
@@ -10197,12 +10191,12 @@
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>207</v>
@@ -10211,7 +10205,7 @@
         <v>9</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E401" s="2" t="s">
         <v>208</v>
@@ -10220,12 +10214,12 @@
         <v>38</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>97</v>
@@ -10234,7 +10228,7 @@
         <v>9</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>103</v>
@@ -10243,12 +10237,12 @@
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>99</v>
@@ -10257,7 +10251,7 @@
         <v>31</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>105</v>
@@ -10266,12 +10260,12 @@
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>106</v>
@@ -10280,7 +10274,7 @@
         <v>31</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E404" s="2" t="s">
         <v>107</v>
@@ -10289,12 +10283,12 @@
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>108</v>
@@ -10303,7 +10297,7 @@
         <v>31</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>109</v>
@@ -10312,12 +10306,12 @@
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>110</v>
@@ -10326,7 +10320,7 @@
         <v>31</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>111</v>
@@ -10335,12 +10329,12 @@
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>112</v>
@@ -10349,7 +10343,7 @@
         <v>31</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E407" s="2" t="s">
         <v>113</v>
@@ -10358,12 +10352,12 @@
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>114</v>
@@ -10372,7 +10366,7 @@
         <v>9</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E408" s="2" t="s">
         <v>115</v>
@@ -10381,12 +10375,12 @@
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>116</v>
@@ -10395,7 +10389,7 @@
         <v>9</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E409" s="2" t="s">
         <v>117</v>
@@ -10404,12 +10398,12 @@
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>118</v>
@@ -10418,7 +10412,7 @@
         <v>9</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>119</v>
@@ -10427,12 +10421,12 @@
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>120</v>
@@ -10441,7 +10435,7 @@
         <v>9</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E411" s="2" t="s">
         <v>121</v>
@@ -10450,12 +10444,12 @@
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>122</v>
@@ -10464,7 +10458,7 @@
         <v>31</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E412" s="2" t="s">
         <v>123</v>
@@ -10473,12 +10467,12 @@
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>124</v>
@@ -10487,7 +10481,7 @@
         <v>31</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E413" s="2" t="s">
         <v>125</v>
@@ -10496,12 +10490,12 @@
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>126</v>
@@ -10510,7 +10504,7 @@
         <v>31</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E414" s="2" t="s">
         <v>127</v>
@@ -10519,12 +10513,12 @@
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>128</v>
@@ -10533,7 +10527,7 @@
         <v>31</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E415" s="2" t="s">
         <v>129</v>
@@ -10542,12 +10536,12 @@
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>130</v>
@@ -10556,7 +10550,7 @@
         <v>9</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E416" s="2" t="s">
         <v>131</v>
@@ -10565,12 +10559,12 @@
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>132</v>
@@ -10579,7 +10573,7 @@
         <v>9</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E417" s="2" t="s">
         <v>133</v>
@@ -10588,12 +10582,12 @@
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>134</v>
@@ -10602,7 +10596,7 @@
         <v>9</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E418" s="2" t="s">
         <v>135</v>
@@ -10611,12 +10605,12 @@
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>136</v>
@@ -10625,7 +10619,7 @@
         <v>9</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>137</v>
@@ -10634,12 +10628,12 @@
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>138</v>
@@ -10648,7 +10642,7 @@
         <v>9</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E420" s="2" t="s">
         <v>139</v>
@@ -10657,12 +10651,12 @@
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>140</v>
@@ -10671,7 +10665,7 @@
         <v>31</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>141</v>
@@ -10680,12 +10674,12 @@
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>142</v>
@@ -10694,7 +10688,7 @@
         <v>31</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>143</v>
@@ -10703,12 +10697,12 @@
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>144</v>
@@ -10717,7 +10711,7 @@
         <v>31</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>145</v>
@@ -10726,12 +10720,12 @@
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>97</v>
@@ -10740,7 +10734,7 @@
         <v>9</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>103</v>
@@ -10749,12 +10743,12 @@
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>99</v>
@@ -10763,7 +10757,7 @@
         <v>31</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E425" s="2" t="s">
         <v>105</v>
@@ -10772,12 +10766,12 @@
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>106</v>
@@ -10786,7 +10780,7 @@
         <v>31</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>107</v>
@@ -10795,12 +10789,12 @@
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>108</v>
@@ -10809,7 +10803,7 @@
         <v>31</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>109</v>
@@ -10818,12 +10812,12 @@
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>110</v>
@@ -10832,7 +10826,7 @@
         <v>31</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>111</v>
@@ -10841,12 +10835,12 @@
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>112</v>
@@ -10855,7 +10849,7 @@
         <v>31</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>113</v>
@@ -10864,12 +10858,12 @@
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>114</v>
@@ -10878,7 +10872,7 @@
         <v>9</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>115</v>
@@ -10887,12 +10881,12 @@
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>116</v>
@@ -10901,7 +10895,7 @@
         <v>9</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>117</v>
@@ -10910,12 +10904,12 @@
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>118</v>
@@ -10924,7 +10918,7 @@
         <v>9</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>119</v>
@@ -10933,12 +10927,12 @@
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>120</v>
@@ -10947,7 +10941,7 @@
         <v>9</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>121</v>
@@ -10956,12 +10950,12 @@
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>122</v>
@@ -10970,7 +10964,7 @@
         <v>31</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>123</v>
@@ -10979,12 +10973,12 @@
         <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>124</v>
@@ -10993,7 +10987,7 @@
         <v>31</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>125</v>
@@ -11002,12 +10996,12 @@
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>126</v>
@@ -11016,7 +11010,7 @@
         <v>31</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>127</v>
@@ -11025,12 +11019,12 @@
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>128</v>
@@ -11039,7 +11033,7 @@
         <v>31</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>129</v>
@@ -11048,12 +11042,12 @@
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>130</v>
@@ -11062,7 +11056,7 @@
         <v>9</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>131</v>
@@ -11071,12 +11065,12 @@
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>132</v>
@@ -11085,7 +11079,7 @@
         <v>9</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>133</v>
@@ -11094,12 +11088,12 @@
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>134</v>
@@ -11108,7 +11102,7 @@
         <v>9</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>135</v>
@@ -11117,12 +11111,12 @@
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>136</v>
@@ -11131,7 +11125,7 @@
         <v>9</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>137</v>
@@ -11140,12 +11134,12 @@
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>138</v>
@@ -11154,7 +11148,7 @@
         <v>9</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>139</v>
@@ -11163,12 +11157,12 @@
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>140</v>
@@ -11177,7 +11171,7 @@
         <v>31</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>141</v>
@@ -11186,12 +11180,12 @@
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>142</v>
@@ -11200,7 +11194,7 @@
         <v>31</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>143</v>
@@ -11209,12 +11203,12 @@
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>144</v>
@@ -11223,7 +11217,7 @@
         <v>31</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>145</v>
@@ -11232,12 +11226,12 @@
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>193</v>
@@ -11246,7 +11240,7 @@
         <v>9</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>195</v>
@@ -11255,12 +11249,12 @@
         <v>38</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>197</v>
@@ -11269,7 +11263,7 @@
         <v>9</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>198</v>
@@ -11278,12 +11272,12 @@
         <v>38</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>199</v>
@@ -11292,7 +11286,7 @@
         <v>9</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>200</v>
@@ -11301,12 +11295,12 @@
         <v>38</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>201</v>
@@ -11315,7 +11309,7 @@
         <v>9</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>202</v>
@@ -11324,12 +11318,12 @@
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>203</v>
@@ -11338,7 +11332,7 @@
         <v>9</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>204</v>
@@ -11347,12 +11341,12 @@
         <v>38</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>205</v>
@@ -11361,7 +11355,7 @@
         <v>9</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>206</v>
@@ -11370,12 +11364,12 @@
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>207</v>
@@ -11384,7 +11378,7 @@
         <v>9</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>208</v>
@@ -11393,12 +11387,12 @@
         <v>38</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>97</v>
@@ -11407,21 +11401,21 @@
         <v>9</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E453" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F453" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>99</v>
@@ -11430,7 +11424,7 @@
         <v>31</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>105</v>
@@ -11439,12 +11433,12 @@
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>106</v>
@@ -11453,7 +11447,7 @@
         <v>31</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>107</v>
@@ -11462,12 +11456,12 @@
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>108</v>
@@ -11476,7 +11470,7 @@
         <v>31</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>109</v>
@@ -11485,12 +11479,12 @@
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>110</v>
@@ -11499,7 +11493,7 @@
         <v>31</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>111</v>
@@ -11508,12 +11502,12 @@
         <v>10</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>112</v>
@@ -11522,7 +11516,7 @@
         <v>31</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>113</v>
@@ -11531,12 +11525,12 @@
         <v>10</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>114</v>
@@ -11545,7 +11539,7 @@
         <v>9</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>115</v>
@@ -11554,12 +11548,12 @@
         <v>10</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>116</v>
@@ -11568,21 +11562,21 @@
         <v>9</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>118</v>
@@ -11591,7 +11585,7 @@
         <v>9</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>119</v>
@@ -11600,12 +11594,12 @@
         <v>10</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>120</v>
@@ -11614,21 +11608,21 @@
         <v>9</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F462" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>122</v>
@@ -11637,7 +11631,7 @@
         <v>31</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>123</v>
@@ -11646,12 +11640,12 @@
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>124</v>
@@ -11660,7 +11654,7 @@
         <v>31</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>125</v>
@@ -11669,12 +11663,12 @@
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>126</v>
@@ -11683,7 +11677,7 @@
         <v>31</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>127</v>
@@ -11692,12 +11686,12 @@
         <v>10</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>128</v>
@@ -11706,7 +11700,7 @@
         <v>31</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>129</v>
@@ -11715,12 +11709,12 @@
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>130</v>
@@ -11729,7 +11723,7 @@
         <v>9</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>131</v>
@@ -11738,12 +11732,12 @@
         <v>10</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>132</v>
@@ -11752,21 +11746,21 @@
         <v>9</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>134</v>
@@ -11775,7 +11769,7 @@
         <v>9</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>135</v>
@@ -11784,12 +11778,12 @@
         <v>10</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>136</v>
@@ -11798,21 +11792,21 @@
         <v>9</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>138</v>
@@ -11821,21 +11815,21 @@
         <v>9</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F471" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>140</v>
@@ -11844,7 +11838,7 @@
         <v>31</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>141</v>
@@ -11853,12 +11847,12 @@
         <v>10</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>142</v>
@@ -11867,7 +11861,7 @@
         <v>31</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>143</v>
@@ -11876,12 +11870,12 @@
         <v>10</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>144</v>
@@ -11890,7 +11884,7 @@
         <v>31</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E474" s="2" t="s">
         <v>145</v>
@@ -11899,15 +11893,15 @@
         <v>10</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>31</v>
@@ -11916,7 +11910,7 @@
         <v>88</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>10</v>
@@ -11927,10 +11921,10 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>9</v>
@@ -11939,10 +11933,10 @@
         <v>88</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G476" s="2" t="s">
         <v>61</v>
@@ -11950,10 +11944,10 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>31</v>
@@ -11962,7 +11956,7 @@
         <v>88</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>10</v>
@@ -11973,10 +11967,10 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>9</v>
@@ -11985,7 +11979,7 @@
         <v>88</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>10</v>
@@ -11996,10 +11990,10 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>31</v>
@@ -12008,7 +12002,7 @@
         <v>59</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>10</v>
@@ -12019,10 +12013,10 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>31</v>
@@ -12031,7 +12025,7 @@
         <v>88</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>10</v>
@@ -12042,10 +12036,10 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>31</v>
@@ -12054,7 +12048,7 @@
         <v>88</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>10</v>
@@ -12065,10 +12059,10 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>31</v>
@@ -12077,7 +12071,7 @@
         <v>88</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>10</v>
@@ -12088,10 +12082,10 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>31</v>
@@ -12100,7 +12094,7 @@
         <v>88</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>10</v>
@@ -12111,10 +12105,10 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>31</v>
@@ -12123,7 +12117,7 @@
         <v>88</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>10</v>
@@ -12134,10 +12128,10 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>31</v>
@@ -12146,7 +12140,7 @@
         <v>88</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>10</v>
@@ -12157,10 +12151,10 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>31</v>
@@ -12169,7 +12163,7 @@
         <v>221</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>10</v>
@@ -12180,10 +12174,10 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>31</v>
@@ -12192,7 +12186,7 @@
         <v>221</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>10</v>
@@ -12203,48 +12197,48 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D488" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B488" s="2" t="s">
+      <c r="E488" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C488" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D488" s="2" t="s">
+      <c r="F488" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G488" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="E488" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F488" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G488" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D489" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B489" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C489" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D489" s="2" t="s">
+      <c r="E489" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G489" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="E489" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F489" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G489" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -2209,7 +2209,7 @@
         <v>94</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>95</v>
@@ -2218,7 +2218,7 @@
         <v>96</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>58</v>
@@ -2255,7 +2255,7 @@
         <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>95</v>
@@ -2278,7 +2278,7 @@
         <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>95</v>
@@ -2301,7 +2301,7 @@
         <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>95</v>
@@ -2324,7 +2324,7 @@
         <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>95</v>
@@ -2439,7 +2439,7 @@
         <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>95</v>
@@ -2462,7 +2462,7 @@
         <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>95</v>
@@ -2485,7 +2485,7 @@
         <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>95</v>
@@ -2508,7 +2508,7 @@
         <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>95</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -4147,7 +4147,7 @@
         <v>117</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>153</v>
@@ -4170,7 +4170,7 @@
         <v>119</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>153</v>
@@ -4179,7 +4179,7 @@
         <v>120</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>154</v>
@@ -4676,7 +4676,7 @@
         <v>117</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>156</v>
@@ -4699,7 +4699,7 @@
         <v>119</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>156</v>
@@ -4708,7 +4708,7 @@
         <v>120</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>157</v>
@@ -5205,7 +5205,7 @@
         <v>117</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>159</v>
@@ -5228,7 +5228,7 @@
         <v>119</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>159</v>
@@ -5237,7 +5237,7 @@
         <v>120</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>160</v>
@@ -5734,7 +5734,7 @@
         <v>117</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>162</v>
@@ -5757,7 +5757,7 @@
         <v>119</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>162</v>
@@ -5766,7 +5766,7 @@
         <v>120</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G208" s="2" t="s">
         <v>163</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="302">
   <si>
     <t>Sezione</t>
   </si>
@@ -800,10 +800,13 @@
     <t>66,68,70,71,72,195,64,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -12286,7 +12289,7 @@
         <v>259</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>31</v>
@@ -12306,10 +12309,10 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>31</v>
@@ -12318,7 +12321,7 @@
         <v>85</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>10</v>
@@ -12329,10 +12332,10 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>9</v>
@@ -12341,10 +12344,10 @@
         <v>85</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F494" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G494" s="2" t="s">
         <v>58</v>
@@ -12352,10 +12355,10 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>31</v>
@@ -12364,7 +12367,7 @@
         <v>85</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>10</v>
@@ -12375,10 +12378,10 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>9</v>
@@ -12387,7 +12390,7 @@
         <v>85</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>10</v>
@@ -12398,10 +12401,10 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>31</v>
@@ -12410,7 +12413,7 @@
         <v>56</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>10</v>
@@ -12421,10 +12424,10 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>31</v>
@@ -12433,7 +12436,7 @@
         <v>85</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>10</v>
@@ -12444,10 +12447,10 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>31</v>
@@ -12456,7 +12459,7 @@
         <v>85</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>10</v>
@@ -12467,10 +12470,10 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>31</v>
@@ -12479,7 +12482,7 @@
         <v>85</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>10</v>
@@ -12490,10 +12493,10 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>31</v>
@@ -12502,7 +12505,7 @@
         <v>85</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>10</v>
@@ -12513,10 +12516,10 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>31</v>
@@ -12525,7 +12528,7 @@
         <v>214</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>10</v>
@@ -12536,10 +12539,10 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>31</v>
@@ -12548,7 +12551,7 @@
         <v>214</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>10</v>
@@ -12559,10 +12562,10 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>9</v>
@@ -12571,7 +12574,7 @@
         <v>85</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>10</v>
@@ -12582,10 +12585,10 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>9</v>
@@ -12594,7 +12597,7 @@
         <v>85</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>10</v>
@@ -12605,71 +12608,71 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B507" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E507" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G507" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C507" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E507" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F507" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G507" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="301">
   <si>
     <t>Sezione</t>
   </si>
@@ -804,9 +804,6 @@
   </si>
   <si>
     <t>195,196</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -12289,7 +12286,7 @@
         <v>259</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>31</v>
@@ -12309,10 +12306,10 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B493" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B493" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>31</v>
@@ -12321,7 +12318,7 @@
         <v>85</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>10</v>
@@ -12332,10 +12329,10 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>9</v>
@@ -12344,10 +12341,10 @@
         <v>85</v>
       </c>
       <c r="E494" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F494" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="F494" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="G494" s="2" t="s">
         <v>58</v>
@@ -12355,10 +12352,10 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>31</v>
@@ -12367,7 +12364,7 @@
         <v>85</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>10</v>
@@ -12378,10 +12375,10 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>9</v>
@@ -12390,7 +12387,7 @@
         <v>85</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>10</v>
@@ -12401,10 +12398,10 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>31</v>
@@ -12413,7 +12410,7 @@
         <v>56</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>10</v>
@@ -12424,10 +12421,10 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>31</v>
@@ -12436,7 +12433,7 @@
         <v>85</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>10</v>
@@ -12447,10 +12444,10 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>31</v>
@@ -12459,7 +12456,7 @@
         <v>85</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>10</v>
@@ -12470,10 +12467,10 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>31</v>
@@ -12482,7 +12479,7 @@
         <v>85</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>10</v>
@@ -12493,10 +12490,10 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>31</v>
@@ -12505,7 +12502,7 @@
         <v>85</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>10</v>
@@ -12516,10 +12513,10 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>31</v>
@@ -12528,7 +12525,7 @@
         <v>214</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>10</v>
@@ -12539,10 +12536,10 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>31</v>
@@ -12551,7 +12548,7 @@
         <v>214</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>10</v>
@@ -12562,10 +12559,10 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>9</v>
@@ -12574,7 +12571,7 @@
         <v>85</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>10</v>
@@ -12585,10 +12582,10 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>9</v>
@@ -12597,7 +12594,7 @@
         <v>85</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>10</v>
@@ -12608,71 +12605,71 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B506" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B506" s="2" t="s">
+      <c r="C506" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D506" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C506" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D506" s="2" t="s">
+      <c r="E506" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E506" s="2" t="s">
+      <c r="F506" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G506" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="F506" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G506" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B507" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E507" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C507" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E507" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="F507" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B508" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E508" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C508" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D508" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E508" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="F508" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="302">
   <si>
     <t>Sezione</t>
   </si>
@@ -804,6 +804,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -12286,7 +12289,7 @@
         <v>259</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>31</v>
@@ -12306,10 +12309,10 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>31</v>
@@ -12318,7 +12321,7 @@
         <v>85</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>10</v>
@@ -12329,10 +12332,10 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>9</v>
@@ -12341,10 +12344,10 @@
         <v>85</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F494" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G494" s="2" t="s">
         <v>58</v>
@@ -12352,10 +12355,10 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>31</v>
@@ -12364,7 +12367,7 @@
         <v>85</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>10</v>
@@ -12375,10 +12378,10 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>9</v>
@@ -12387,7 +12390,7 @@
         <v>85</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>10</v>
@@ -12398,10 +12401,10 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>31</v>
@@ -12410,7 +12413,7 @@
         <v>56</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>10</v>
@@ -12421,10 +12424,10 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>31</v>
@@ -12433,7 +12436,7 @@
         <v>85</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>10</v>
@@ -12444,10 +12447,10 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>31</v>
@@ -12456,7 +12459,7 @@
         <v>85</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>10</v>
@@ -12467,10 +12470,10 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>31</v>
@@ -12479,7 +12482,7 @@
         <v>85</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>10</v>
@@ -12490,10 +12493,10 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>31</v>
@@ -12502,7 +12505,7 @@
         <v>85</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>10</v>
@@ -12513,10 +12516,10 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>31</v>
@@ -12525,7 +12528,7 @@
         <v>214</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>10</v>
@@ -12536,10 +12539,10 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>31</v>
@@ -12548,7 +12551,7 @@
         <v>214</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>10</v>
@@ -12559,10 +12562,10 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>9</v>
@@ -12571,7 +12574,7 @@
         <v>85</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>10</v>
@@ -12582,10 +12585,10 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>9</v>
@@ -12594,7 +12597,7 @@
         <v>85</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>10</v>
@@ -12605,71 +12608,71 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B507" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E507" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G507" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C507" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E507" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F507" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G507" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -4680,7 +4680,7 @@
         <v>99</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>165</v>
@@ -4689,7 +4689,7 @@
         <v>100</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>166</v>
@@ -5209,7 +5209,7 @@
         <v>99</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>168</v>
@@ -5218,7 +5218,7 @@
         <v>100</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>169</v>
@@ -5738,7 +5738,7 @@
         <v>99</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>171</v>
@@ -5747,7 +5747,7 @@
         <v>100</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>172</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3878" uniqueCount="311">
   <si>
     <t>Sezione</t>
   </si>
@@ -731,15 +731,15 @@
     <t>Segretario comunale</t>
   </si>
   <si>
+    <t>Ruolo</t>
+  </si>
+  <si>
+    <t>ruoloSegretario</t>
+  </si>
+  <si>
     <t>evento.datiEventoMatrimonio.segretarioComunale</t>
   </si>
   <si>
-    <t>Ruolo</t>
-  </si>
-  <si>
-    <t>ruoloSegretario</t>
-  </si>
-  <si>
     <t>Padre Sposo</t>
   </si>
   <si>
@@ -834,9 +834,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>195,196</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -1006,7 +1003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H532"/>
+  <dimension ref="A1:H554"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7535,19 +7532,19 @@
         <v>238</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>239</v>
+        <v>85</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>58</v>
@@ -7558,19 +7555,19 @@
         <v>238</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>58</v>
@@ -7581,16 +7578,16 @@
         <v>238</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>240</v>
+        <v>97</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
@@ -7601,508 +7598,508 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
     </row>
     <row r="309">
@@ -8110,16 +8107,16 @@
         <v>242</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>243</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>10</v>
@@ -8133,7 +8130,7 @@
         <v>242</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>31</v>
@@ -8142,7 +8139,7 @@
         <v>243</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>10</v>
@@ -8153,508 +8150,508 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="333">
@@ -8662,16 +8659,16 @@
         <v>245</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>246</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>10</v>
@@ -8685,7 +8682,7 @@
         <v>245</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>31</v>
@@ -8694,7 +8691,7 @@
         <v>246</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>10</v>
@@ -8705,508 +8702,508 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="357">
@@ -9214,16 +9211,16 @@
         <v>248</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>10</v>
@@ -9237,7 +9234,7 @@
         <v>248</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>31</v>
@@ -9246,7 +9243,7 @@
         <v>249</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>10</v>
@@ -9257,508 +9254,508 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="381">
@@ -9766,16 +9763,16 @@
         <v>251</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>252</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>10</v>
@@ -9789,7 +9786,7 @@
         <v>251</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>31</v>
@@ -9798,7 +9795,7 @@
         <v>252</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>10</v>
@@ -9809,508 +9806,508 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="405">
@@ -10318,16 +10315,16 @@
         <v>254</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>10</v>
@@ -10341,7 +10338,7 @@
         <v>254</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>31</v>
@@ -10350,7 +10347,7 @@
         <v>255</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>10</v>
@@ -10361,10 +10358,10 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
@@ -10373,21 +10370,21 @@
         <v>255</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>31</v>
@@ -10396,44 +10393,44 @@
         <v>255</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>31</v>
@@ -10442,21 +10439,21 @@
         <v>255</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>31</v>
@@ -10465,67 +10462,67 @@
         <v>255</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -10534,21 +10531,21 @@
         <v>255</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -10557,21 +10554,21 @@
         <v>255</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -10580,67 +10577,67 @@
         <v>255</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>31</v>
@@ -10649,21 +10646,21 @@
         <v>255</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>31</v>
@@ -10672,67 +10669,67 @@
         <v>255</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D421" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
@@ -10741,21 +10738,21 @@
         <v>255</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
@@ -10764,21 +10761,21 @@
         <v>255</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>9</v>
@@ -10787,67 +10784,67 @@
         <v>255</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D427" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>31</v>
@@ -10856,13 +10853,13 @@
         <v>255</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="429">
@@ -10870,16 +10867,16 @@
         <v>257</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D429" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>10</v>
@@ -10893,7 +10890,7 @@
         <v>257</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>31</v>
@@ -10902,7 +10899,7 @@
         <v>255</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>10</v>
@@ -10913,669 +10910,669 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="460">
@@ -11583,16 +11580,16 @@
         <v>262</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D460" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>10</v>
@@ -11606,7 +11603,7 @@
         <v>262</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>31</v>
@@ -11615,7 +11612,7 @@
         <v>263</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>10</v>
@@ -11626,10 +11623,10 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>9</v>
@@ -11638,21 +11635,21 @@
         <v>263</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>31</v>
@@ -11661,44 +11658,44 @@
         <v>263</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D464" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>31</v>
@@ -11707,21 +11704,21 @@
         <v>263</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>31</v>
@@ -11730,67 +11727,67 @@
         <v>263</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F466" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D467" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F467" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D468" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>9</v>
@@ -11799,21 +11796,21 @@
         <v>263</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>9</v>
@@ -11822,21 +11819,21 @@
         <v>263</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>9</v>
@@ -11845,67 +11842,67 @@
         <v>263</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D472" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D473" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>31</v>
@@ -11914,21 +11911,21 @@
         <v>263</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>31</v>
@@ -11937,67 +11934,67 @@
         <v>263</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D476" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>9</v>
@@ -12006,21 +12003,21 @@
         <v>263</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>9</v>
@@ -12029,21 +12026,21 @@
         <v>263</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>9</v>
@@ -12052,67 +12049,67 @@
         <v>263</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D481" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D482" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>31</v>
@@ -12121,13 +12118,13 @@
         <v>263</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="484">
@@ -12135,16 +12132,16 @@
         <v>265</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D484" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>10</v>
@@ -12158,7 +12155,7 @@
         <v>265</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>31</v>
@@ -12167,7 +12164,7 @@
         <v>263</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>10</v>
@@ -12178,669 +12175,669 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G491" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G492" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F493" s="2" t="s">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F494" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F501" s="2" t="s">
-        <v>274</v>
+        <v>10</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>274</v>
+        <v>10</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G509" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>274</v>
+        <v>10</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>274</v>
+        <v>10</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="515">
@@ -12848,19 +12845,19 @@
         <v>270</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D515" s="2" t="s">
         <v>271</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>10</v>
+        <v>272</v>
       </c>
       <c r="G515" s="2" t="s">
         <v>273</v>
@@ -12871,7 +12868,7 @@
         <v>270</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>31</v>
@@ -12880,7 +12877,7 @@
         <v>271</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>10</v>
@@ -12891,370 +12888,876 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>276</v>
+        <v>99</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>277</v>
+        <v>100</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G517" s="2" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>278</v>
+        <v>101</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>279</v>
+        <v>102</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>281</v>
+        <v>103</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>283</v>
+        <v>105</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>284</v>
+        <v>106</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>285</v>
+        <v>107</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>56</v>
+        <v>271</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>286</v>
+        <v>108</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>288</v>
+        <v>110</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>289</v>
+        <v>111</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>290</v>
+        <v>112</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>10</v>
+        <v>272</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>292</v>
+        <v>114</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>294</v>
+        <v>116</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>10</v>
+        <v>272</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>295</v>
+        <v>117</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>296</v>
+        <v>118</v>
       </c>
       <c r="F526" s="2" t="s">
-        <v>10</v>
+        <v>272</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>297</v>
+        <v>119</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>299</v>
+        <v>121</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>301</v>
+        <v>123</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>302</v>
+        <v>124</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G529" s="2" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>304</v>
+        <v>125</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>306</v>
+        <v>126</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>309</v>
+        <v>128</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E532" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F532" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G532" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D533" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E533" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F533" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G533" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E534" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F534" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G534" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D535" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E535" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G535" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D536" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E536" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G536" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D537" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E537" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G537" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D538" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E538" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G538" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G539" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D540" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E540" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G540" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D541" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E541" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G541" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D542" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E542" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G542" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D543" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G543" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D544" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G544" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D545" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E545" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G545" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D546" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G546" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D547" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G547" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D548" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G548" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D549" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G549" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D550" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G550" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D551" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G551" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B552" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B532" s="2" t="s">
+      <c r="C552" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D552" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G552" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D553" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E553" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G553" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D554" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E554" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C532" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D532" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E532" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F532" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G532" s="2" t="s">
-        <v>307</v>
+      <c r="F554" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G554" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4095" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="314">
   <si>
     <t>Sezione</t>
   </si>
@@ -606,6 +606,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -1006,7 +1012,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H585"/>
+  <dimension ref="A1:H587"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6911,19 +6917,19 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E257" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
@@ -6934,19 +6940,19 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
@@ -6957,19 +6963,19 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
@@ -6980,19 +6986,19 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
@@ -7003,19 +7009,19 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
@@ -7026,19 +7032,19 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
@@ -7049,19 +7055,19 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
@@ -7072,19 +7078,19 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
@@ -7095,19 +7101,19 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
@@ -7118,19 +7124,19 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
@@ -7141,19 +7147,19 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
@@ -7164,19 +7170,19 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
@@ -7190,22 +7196,22 @@
         <v>202</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D269" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E269" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
     </row>
     <row r="270">
@@ -7213,637 +7219,637 @@
         <v>202</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="C277" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E277" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E277" s="2" t="s">
+      <c r="F277" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B283" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D283" s="2" t="s">
+      <c r="E283" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D284" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D284" s="2" t="s">
+      <c r="E284" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G284" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D290" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B290" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D290" s="2" t="s">
+      <c r="E290" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G290" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D291" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G291" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G291" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E292" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="F292" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>55</v>
+        <v>234</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B296" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>93</v>
+        <v>240</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>55</v>
+        <v>234</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>95</v>
+        <v>243</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
@@ -7854,22 +7860,22 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>55</v>
@@ -7877,19 +7883,19 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
@@ -7900,19 +7906,19 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
@@ -7923,19 +7929,19 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>10</v>
@@ -7946,19 +7952,19 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
@@ -7969,19 +7975,19 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>10</v>
@@ -7992,19 +7998,19 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>10</v>
@@ -8015,19 +8021,19 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
@@ -8038,19 +8044,19 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>10</v>
@@ -8061,19 +8067,19 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
@@ -8084,19 +8090,19 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
@@ -8107,19 +8113,19 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>10</v>
@@ -8130,19 +8136,19 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>10</v>
@@ -8153,19 +8159,19 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>10</v>
@@ -8176,19 +8182,19 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
@@ -8199,19 +8205,19 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>10</v>
@@ -8222,19 +8228,19 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
@@ -8245,19 +8251,19 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
@@ -8268,19 +8274,19 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>10</v>
@@ -8291,19 +8297,19 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>10</v>
@@ -8314,19 +8320,19 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
@@ -8337,19 +8343,19 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
@@ -8360,19 +8366,19 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
@@ -8383,19 +8389,19 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
@@ -8406,10 +8412,10 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
@@ -8418,2997 +8424,2997 @@
         <v>244</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>245</v>
+        <v>55</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>244</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>245</v>
+        <v>55</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D348" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B348" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D348" s="2" t="s">
+      <c r="E348" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G348" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="E348" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F348" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G348" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D349" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B349" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D349" s="2" t="s">
+      <c r="E349" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G349" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="E349" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F349" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G349" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D374" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B374" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D374" s="2" t="s">
+      <c r="E374" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G374" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="E374" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F374" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G374" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D375" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B375" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D375" s="2" t="s">
+      <c r="E375" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G375" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="E375" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F375" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G375" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D400" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B400" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D400" s="2" t="s">
+      <c r="E400" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G400" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="E400" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F400" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G400" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D401" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B401" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C401" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D401" s="2" t="s">
+      <c r="E401" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G401" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="E401" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F401" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G401" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D426" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B426" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D426" s="2" t="s">
+      <c r="E426" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G426" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E426" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F426" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G426" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D427" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B427" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D427" s="2" t="s">
+      <c r="E427" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G427" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E427" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F427" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G427" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D452" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B452" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C452" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D452" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E452" s="2" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>10</v>
@@ -11419,19 +11425,19 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D453" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B453" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C453" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D453" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E453" s="2" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>10</v>
@@ -11442,554 +11448,554 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D454" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B454" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C454" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D454" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E454" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D455" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B455" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C455" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D455" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E455" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D456" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B456" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C456" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D456" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E456" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D457" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B457" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C457" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D457" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E457" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D458" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B458" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C458" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D458" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E458" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D459" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B459" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D459" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E459" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D460" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B460" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D460" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E460" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D461" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B461" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D461" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E461" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D462" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B462" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C462" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D462" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E462" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D463" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B463" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D463" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E463" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D464" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B464" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D464" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E464" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D465" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B465" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E465" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D466" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B466" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C466" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D466" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E466" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F466" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D467" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B467" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C467" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D467" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E467" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F467" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D468" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B468" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D468" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E468" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D469" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B469" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E469" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D470" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B470" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D470" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E470" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D471" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B471" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C471" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D471" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E471" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D472" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B472" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E472" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D473" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B473" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D473" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E473" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D474" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B474" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C474" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D474" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E474" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D475" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B475" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C475" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D475" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E475" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D476" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B476" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D476" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E476" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D477" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B477" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D477" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="E477" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="478">
@@ -11997,22 +12003,22 @@
         <v>260</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D478" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F478" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G478" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="E478" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F478" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G478" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="479">
@@ -12020,752 +12026,752 @@
         <v>260</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D479" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E479" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G479" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="E479" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F479" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G479" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D485" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B485" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C485" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D485" s="2" t="s">
+      <c r="E485" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G485" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="E485" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F485" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G485" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D486" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B486" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C486" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D486" s="2" t="s">
+      <c r="E486" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F486" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G486" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="E486" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F486" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G486" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G491" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G492" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F494" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G509" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D511" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B511" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C511" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D511" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E511" s="2" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>10</v>
@@ -12776,19 +12782,19 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D512" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B512" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C512" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D512" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E512" s="2" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>10</v>
@@ -12799,554 +12805,554 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D513" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B513" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C513" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D513" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E513" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D514" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B514" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C514" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D514" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E514" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D515" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B515" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C515" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D515" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E515" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D516" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B516" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C516" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D516" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E516" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D517" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B517" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C517" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D517" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E517" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G517" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D518" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B518" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C518" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D518" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E518" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D519" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B519" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C519" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D519" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E519" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D520" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B520" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C520" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D520" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E520" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D521" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B521" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C521" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D521" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E521" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D522" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B522" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C522" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D522" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E522" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D523" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B523" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C523" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D523" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E523" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D524" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B524" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C524" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D524" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E524" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D525" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B525" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C525" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D525" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E525" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D526" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B526" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C526" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D526" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E526" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D527" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B527" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C527" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D527" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E527" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D528" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B528" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C528" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D528" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E528" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D529" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B529" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C529" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D529" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E529" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G529" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D530" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B530" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C530" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D530" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E530" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D531" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B531" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C531" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D531" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E531" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D532" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B532" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C532" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D532" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E532" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D533" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B533" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C533" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D533" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E533" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G533" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D534" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B534" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C534" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D534" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E534" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D535" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B535" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C535" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D535" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E535" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D536" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B536" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C536" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D536" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E536" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F536" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G536" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="537">
@@ -13354,22 +13360,22 @@
         <v>268</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D537" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E537" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G537" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="E537" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F537" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G537" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="538">
@@ -13377,789 +13383,789 @@
         <v>268</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D538" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E538" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G538" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="E538" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F538" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G538" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F539" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G539" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F540" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G540" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F541" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G541" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F542" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G542" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F543" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G543" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D544" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B544" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C544" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D544" s="2" t="s">
+      <c r="E544" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G544" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="E544" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F544" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G544" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D545" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B545" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C545" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D545" s="2" t="s">
+      <c r="E545" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G545" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="E545" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F545" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G545" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="G546" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F547" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F548" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G548" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F550" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G550" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F551" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G551" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>273</v>
+        <v>10</v>
       </c>
       <c r="G552" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F553" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G553" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G554" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>273</v>
+        <v>10</v>
       </c>
       <c r="G555" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="G556" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E557" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F557" s="2" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="G557" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>273</v>
+        <v>10</v>
       </c>
       <c r="G558" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>273</v>
+        <v>10</v>
       </c>
       <c r="G559" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="G560" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F561" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G561" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E562" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F562" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G562" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F563" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G563" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E564" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F564" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G564" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E565" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F565" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G565" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E566" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F566" s="2" t="s">
-        <v>273</v>
+        <v>10</v>
       </c>
       <c r="G566" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E567" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F567" s="2" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="G567" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F568" s="2" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="G568" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E569" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F569" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G569" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B570" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D570" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E570" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F570" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G570" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="C570" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D570" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E570" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F570" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G570" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="E571" s="2" t="s">
-        <v>279</v>
+        <v>143</v>
       </c>
       <c r="F571" s="2" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="G571" s="2" t="s">
-        <v>55</v>
+        <v>276</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>31</v>
@@ -14168,7 +14174,7 @@
         <v>82</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F572" s="2" t="s">
         <v>10</v>
@@ -14179,10 +14185,10 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>9</v>
@@ -14191,10 +14197,10 @@
         <v>82</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F573" s="2" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="G573" s="2" t="s">
         <v>55</v>
@@ -14202,19 +14208,19 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F574" s="2" t="s">
         <v>10</v>
@@ -14225,22 +14231,22 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D575" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E575" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F575" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G575" s="2" t="s">
         <v>55</v>
@@ -14248,19 +14254,19 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E576" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F576" s="2" t="s">
         <v>10</v>
@@ -14271,10 +14277,10 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>31</v>
@@ -14283,7 +14289,7 @@
         <v>82</v>
       </c>
       <c r="E577" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F577" s="2" t="s">
         <v>10</v>
@@ -14294,10 +14300,10 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>31</v>
@@ -14306,7 +14312,7 @@
         <v>82</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F578" s="2" t="s">
         <v>10</v>
@@ -14317,19 +14323,19 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F579" s="2" t="s">
         <v>10</v>
@@ -14340,19 +14346,19 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="E580" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F580" s="2" t="s">
         <v>10</v>
@@ -14363,19 +14369,19 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="E581" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F581" s="2" t="s">
         <v>10</v>
@@ -14386,19 +14392,19 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="E582" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F582" s="2" t="s">
         <v>10</v>
@@ -14409,71 +14415,117 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="E583" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F583" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G583" s="2" t="s">
-        <v>307</v>
+        <v>55</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B584" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B584" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="C584" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="E584" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F584" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G584" s="2" t="s">
-        <v>307</v>
+        <v>55</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B585" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D585" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E585" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F585" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G585" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B586" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C585" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D585" s="2" t="s">
+      <c r="C586" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D586" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E586" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G586" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E585" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F585" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G585" s="2" t="s">
+      <c r="B587" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D587" s="2" t="s">
         <v>307</v>
+      </c>
+      <c r="E587" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G587" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -13869,7 +13869,7 @@
         <v>116</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D559" s="2" t="s">
         <v>274</v>
@@ -13892,7 +13892,7 @@
         <v>118</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D560" s="2" t="s">
         <v>274</v>
@@ -13901,7 +13901,7 @@
         <v>119</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="G560" s="2" t="s">
         <v>276</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_003.xlsx
@@ -467,64 +467,64 @@
     <t>66,67,68,119,71,63,64,65</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>In imminente pericolo di vita</t>
+  </si>
+  <si>
+    <t>sposoInPericoloVita</t>
+  </si>
+  <si>
+    <t>Accertamento volontà</t>
+  </si>
+  <si>
+    <t>accertamentoVolontaSposo</t>
+  </si>
+  <si>
+    <t>Generalità Sposa</t>
+  </si>
+  <si>
+    <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>sposaInPericoloVita</t>
+  </si>
+  <si>
+    <t>accertamentoVolontaSposa</t>
+  </si>
+  <si>
+    <t>Testimone 1</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.testimone1</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,1</t>
+  </si>
+  <si>
     <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>Provincia AIRE</t>
-  </si>
-  <si>
-    <t>idProvinciaAIRE</t>
-  </si>
-  <si>
-    <t>Provincia AIRE - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaAIRE</t>
-  </si>
-  <si>
-    <t>Comune AIRE</t>
-  </si>
-  <si>
-    <t>idComuneAIRE</t>
-  </si>
-  <si>
-    <t>Comune AIRE - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>In imminente pericolo di vita</t>
-  </si>
-  <si>
-    <t>sposoInPericoloVita</t>
-  </si>
-  <si>
-    <t>Accertamento volontà</t>
-  </si>
-  <si>
-    <t>accertamentoVolontaSposo</t>
-  </si>
-  <si>
-    <t>Generalità Sposa</t>
-  </si>
-  <si>
-    <t>evento.intestatari[1]</t>
-  </si>
-  <si>
-    <t>sposaInPericoloVita</t>
-  </si>
-  <si>
-    <t>accertamentoVolontaSposa</t>
-  </si>
-  <si>
-    <t>Testimone 1</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.testimone1</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,1</t>
   </si>
   <si>
     <t>Testimone 2</t>
@@ -3465,10 +3465,10 @@
         <v>148</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>149</v>
@@ -3477,7 +3477,7 @@
         <v>147</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>55</v>
@@ -3488,7 +3488,7 @@
         <v>148</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3497,7 +3497,7 @@
         <v>149</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3511,7 +3511,7 @@
         <v>148</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3520,7 +3520,7 @@
         <v>149</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>33</v>
@@ -3534,7 +3534,7 @@
         <v>148</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3543,7 +3543,7 @@
         <v>149</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3557,7 +3557,7 @@
         <v>148</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3566,7 +3566,7 @@
         <v>149</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>33</v>
@@ -3580,7 +3580,7 @@
         <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>31</v>
@@ -3589,7 +3589,7 @@
         <v>82</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3603,7 +3603,7 @@
         <v>148</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3612,7 +3612,7 @@
         <v>82</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>33</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>91</v>
@@ -3632,7 +3632,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>93</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>94</v>
@@ -3655,7 +3655,7 @@
         <v>31</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>95</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>96</v>
@@ -3678,7 +3678,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>97</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>98</v>
@@ -3701,7 +3701,7 @@
         <v>31</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>99</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>100</v>
@@ -3724,7 +3724,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>101</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>102</v>
@@ -3747,7 +3747,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>103</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>104</v>
@@ -3770,7 +3770,7 @@
         <v>31</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>105</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>106</v>
@@ -3793,7 +3793,7 @@
         <v>31</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>107</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>108</v>
@@ -3816,7 +3816,7 @@
         <v>31</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>109</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>110</v>
@@ -3839,7 +3839,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>111</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>112</v>
@@ -3862,7 +3862,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>113</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>114</v>
@@ -3885,7 +3885,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>115</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>116</v>
@@ -3908,7 +3908,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>117</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>118</v>
@@ -3931,7 +3931,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>119</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>120</v>
@@ -3954,7 +3954,7 @@
         <v>31</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>121</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>122</v>
@@ -3977,7 +3977,7 @@
         <v>31</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>123</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>124</v>
@@ -4000,7 +4000,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>125</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>126</v>
@@ -4023,7 +4023,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>127</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>128</v>
@@ -4046,7 +4046,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>129</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>130</v>
@@ -4069,7 +4069,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>131</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>132</v>
@@ -4092,7 +4092,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>133</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>134</v>
@@ -4115,7 +4115,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>135</v>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>136</v>
@@ -4138,7 +4138,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>137</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>138</v>
@@ -4161,7 +4161,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>139</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>140</v>
@@ -4184,7 +4184,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>141</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>142</v>
@@ -4207,7 +4207,7 @@
         <v>31</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>143</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>144</v>
@@ -4230,7 +4230,7 @@
         <v>31</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>145</v>
@@ -4244,22 +4244,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>55</v>
@@ -4267,19 +4267,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="E141" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -4290,19 +4290,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="E142" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>33</v>
@@ -4313,19 +4313,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="E143" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -4336,19 +4336,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="E144" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>33</v>
@@ -4359,10 +4359,10 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>31</v>
@@ -4371,7 +4371,7 @@
         <v>82</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4382,10 +4382,10 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4394,7 +4394,7 @@
         <v>82</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>33</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>91</v>
@@ -4414,7 +4414,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>93</v>
@@ -4423,12 +4423,12 @@
         <v>33</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>94</v>
@@ -4437,7 +4437,7 @@
         <v>31</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>95</v>
@@ -4446,12 +4446,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>96</v>
@@ -4460,7 +4460,7 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>97</v>
@@ -4469,12 +4469,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>98</v>
@@ -4483,7 +4483,7 @@
         <v>31</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>99</v>
@@ -4492,12 +4492,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>100</v>
@@ -4506,7 +4506,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>101</v>
@@ -4515,12 +4515,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>102</v>
@@ -4529,7 +4529,7 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>103</v>
@@ -4538,12 +4538,12 @@
         <v>33</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>104</v>
@@ -4552,7 +4552,7 @@
         <v>31</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>105</v>
@@ -4561,12 +4561,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>106</v>
@@ -4575,7 +4575,7 @@
         <v>31</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>107</v>
@@ -4584,12 +4584,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>108</v>
@@ -4598,7 +4598,7 @@
         <v>31</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>109</v>
@@ -4607,12 +4607,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>110</v>
@@ -4621,7 +4621,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>111</v>
@@ -4630,12 +4630,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>112</v>
@@ -4644,7 +4644,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>113</v>
@@ -4653,12 +4653,12 @@
         <v>33</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>114</v>
@@ -4667,7 +4667,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>115</v>
@@ -4676,12 +4676,12 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>116</v>
@@ -4690,7 +4690,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>117</v>
@@ -4699,12 +4699,12 @@
         <v>33</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>118</v>
@@ -4713,7 +4713,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>119</v>
@@ -4722,12 +4722,12 @@
         <v>33</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>120</v>
@@ -4736,7 +4736,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>121</v>
@@ -4745,12 +4745,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>122</v>
@@ -4759,7 +4759,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>123</v>
@@ -4768,12 +4768,12 @@
         <v>33</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>124</v>
@@ -4782,7 +4782,7 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>125</v>
@@ -4791,12 +4791,12 @@
         <v>33</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>126</v>
@@ -4805,7 +4805,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>127</v>
@@ -4814,12 +4814,12 @@
         <v>33</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>128</v>
@@ -4828,7 +4828,7 @@
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>129</v>
@@ -4837,12 +4837,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>130</v>
@@ -4851,7 +4851,7 @@
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>131</v>
@@ -4860,12 +4860,12 @@
         <v>33</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>132</v>
@@ -4874,7 +4874,7 @@
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>133</v>
@@ -4883,12 +4883,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>134</v>
@@ -4897,7 +4897,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>135</v>
@@ -4906,12 +4906,12 @@
         <v>33</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>136</v>
@@ -4920,7 +4920,7 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>137</v>
@@ -4929,12 +4929,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>138</v>
@@ -4943,7 +4943,7 @@
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>139</v>
@@ -4952,12 +4952,12 @@
         <v>33</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>140</v>
@@ -4966,7 +4966,7 @@
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>141</v>
@@ -4975,12 +4975,12 @@
         <v>33</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>142</v>
@@ -4989,7 +4989,7 @@
         <v>31</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>143</v>
@@ -4998,12 +4998,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>144</v>
@@ -5012,7 +5012,7 @@
         <v>31</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>145</v>
@@ -5021,21 +5021,21 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>147</v>
@@ -5044,7 +5044,7 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175">
@@ -5673,7 +5673,7 @@
         <v>171</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>31</v>
@@ -6317,7 +6317,7 @@
         <v>174</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>31</v>
@@ -6961,7 +6961,7 @@
         <v>177</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>31</v>
@@ -9468,7 +9468,7 @@
         <v>249</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>31</v>
@@ -10112,7 +10112,7 @@
         <v>252</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>31</v>
@@ -10756,7 +10756,7 @@
         <v>255</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>31</v>
@@ -11400,7 +11400,7 @@
         <v>258</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>31</v>
@@ -12044,7 +12044,7 @@
         <v>261</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>31</v>
@@ -12688,7 +12688,7 @@
         <v>264</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>31</v>
@@ -13493,7 +13493,7 @@
         <v>269</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>31</v>
@@ -14137,7 +14137,7 @@
         <v>272</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>31</v>
